--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
@@ -1622,14 +1622,14 @@
       <c r="AD11" s="10"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="1">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="1">
         <v>3</v>
       </c>
       <c r="AM11" s="1">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="8:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="AM12" s="1">
         <f>SUM(AM7:AM11)</f>
-        <v>196.25</v>
+        <v>197</v>
       </c>
       <c r="AN12" s="1">
         <f>SUM(AN7:AN11)</f>
@@ -2037,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
@@ -122,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -441,11 +441,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF00B050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -501,6 +668,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -667,6 +867,55 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7629525" y="2476500"/>
+          <a:ext cx="0" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -792,6 +1041,104 @@
         <a:xfrm flipV="1">
           <a:off x="9731828" y="1145721"/>
           <a:ext cx="0" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6802</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>246289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6802</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5340802" y="3593646"/>
+          <a:ext cx="0" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302090</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>302090</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>125182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4792447" y="3350075"/>
+          <a:ext cx="0" cy="408214"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1085,18 +1432,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N26"/>
+  <dimension ref="B1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="Q2" sqref="Q2:AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="14" width="3.7109375" customWidth="1"/>
+    <col min="17" max="28" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
@@ -1110,7 +1458,7 @@
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
     </row>
-    <row r="2" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="47"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1124,23 +1472,59 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="35"/>
-    </row>
-    <row r="3" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="50"/>
+    </row>
+    <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="47"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="N3" s="34"/>
-    </row>
-    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="53"/>
+    </row>
+    <row r="4" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="47"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39"/>
       <c r="N4" s="34"/>
-    </row>
-    <row r="5" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="53"/>
+    </row>
+    <row r="5" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="47"/>
       <c r="E5" s="34"/>
       <c r="F5" s="40"/>
@@ -1148,8 +1532,20 @@
       <c r="H5" s="40"/>
       <c r="I5" s="39"/>
       <c r="N5" s="34"/>
-    </row>
-    <row r="6" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="56"/>
+    </row>
+    <row r="6" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="47"/>
       <c r="E6" s="34"/>
       <c r="F6" s="40"/>
@@ -1161,8 +1557,20 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="38"/>
-    </row>
-    <row r="7" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
+      <c r="AA6" s="60"/>
+      <c r="AB6" s="61"/>
+    </row>
+    <row r="7" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="47"/>
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
@@ -1174,8 +1582,20 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="42"/>
-    </row>
-    <row r="8" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="59"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
+      <c r="Z7" s="60"/>
+      <c r="AA7" s="60"/>
+      <c r="AB7" s="61"/>
+    </row>
+    <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47"/>
       <c r="E8" s="34"/>
       <c r="F8" s="40"/>
@@ -1187,8 +1607,20 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="64"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="61"/>
+    </row>
+    <row r="9" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="48"/>
       <c r="E9" s="34"/>
       <c r="F9" s="40"/>
@@ -1200,8 +1632,20 @@
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="42"/>
-    </row>
-    <row r="10" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="60"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="61"/>
+    </row>
+    <row r="10" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="47"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -1212,36 +1656,84 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="42"/>
-    </row>
-    <row r="11" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q10" s="51"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="61"/>
+    </row>
+    <row r="11" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="47"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="42"/>
-    </row>
-    <row r="12" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="51"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61"/>
+    </row>
+    <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="47"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
       <c r="N12" s="42"/>
-    </row>
-    <row r="13" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="61"/>
+    </row>
+    <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="47"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="42"/>
-    </row>
-    <row r="14" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="54"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="63"/>
+    </row>
+    <row r="14" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="47"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="47"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
@@ -1253,7 +1745,7 @@
       <c r="M15" s="40"/>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="47"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
@@ -1368,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AN28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,9 +1869,9 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="5.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="1" customWidth="1"/>
-    <col min="8" max="17" width="5.7109375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="4.7109375" style="2" customWidth="1"/>
+    <col min="7" max="15" width="4.7109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="5.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="1"/>
     <col min="19" max="30" width="4.7109375" style="1" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="27"/>
@@ -1388,15 +1880,25 @@
     <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+    <row r="3" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66">
+        <v>1</v>
+      </c>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="66">
+        <v>2</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="66">
+        <v>3</v>
+      </c>
+      <c r="O3" s="67"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
       <c r="U3" s="1">
@@ -1409,16 +1911,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="8:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
+    <row r="4" spans="4:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="32"/>
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
@@ -1433,16 +1939,20 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
+    <row r="5" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D5" s="59"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="68"/>
       <c r="Q5" s="32"/>
       <c r="S5" s="3"/>
       <c r="X5" s="1">
@@ -1450,16 +1960,24 @@
       </c>
       <c r="AD5" s="10"/>
     </row>
-    <row r="6" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
+    <row r="6" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="73">
+        <v>15</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="79">
+        <v>4</v>
+      </c>
       <c r="Q6" s="32"/>
       <c r="S6" s="3"/>
       <c r="AD6" s="10"/>
@@ -1476,16 +1994,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="8:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
+    <row r="7" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70">
+        <v>16</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="76">
+        <v>17</v>
+      </c>
+      <c r="O7" s="76"/>
+      <c r="P7" s="68"/>
       <c r="Q7" s="32"/>
       <c r="S7" s="3"/>
       <c r="U7" s="24">
@@ -1508,16 +2034,20 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="8:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
+    <row r="8" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="68"/>
       <c r="Q8" s="32"/>
       <c r="S8" s="3"/>
       <c r="U8" s="10"/>
@@ -1543,16 +2073,20 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="8:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+    <row r="9" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="68"/>
       <c r="Q9" s="32"/>
       <c r="S9" s="3"/>
       <c r="U9" s="10">
@@ -1571,16 +2105,28 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="8:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
+    <row r="10" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10" s="75"/>
+      <c r="E10" s="71">
+        <v>14</v>
+      </c>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71">
+        <v>13</v>
+      </c>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="78">
+        <v>12</v>
+      </c>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="79">
+        <v>5</v>
+      </c>
       <c r="Q10" s="32"/>
       <c r="S10" s="3"/>
       <c r="U10" s="10"/>
@@ -1600,16 +2146,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="8:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
+    <row r="11" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="68"/>
       <c r="Q11" s="32"/>
       <c r="S11" s="3"/>
       <c r="U11" s="10"/>
@@ -1632,16 +2182,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="8:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
+    <row r="12" spans="4:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="77">
+        <v>11</v>
+      </c>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="68"/>
       <c r="Q12" s="32"/>
       <c r="S12" s="3"/>
       <c r="V12" s="17"/>
@@ -1667,16 +2223,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+    <row r="13" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53">
+        <v>10</v>
+      </c>
+      <c r="M13" s="60"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="60"/>
+      <c r="P13" s="68"/>
       <c r="Q13" s="32"/>
       <c r="S13" s="3"/>
       <c r="AA13" s="21">
@@ -1684,16 +2246,22 @@
       </c>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
+    <row r="14" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="60"/>
+      <c r="P14" s="79">
+        <v>6</v>
+      </c>
       <c r="Q14" s="32"/>
       <c r="S14" s="3"/>
       <c r="AA14" s="10"/>
@@ -1702,16 +2270,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
+    <row r="15" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="69"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="32"/>
       <c r="S15" s="3"/>
       <c r="AA15" s="10">
@@ -1728,13 +2300,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="8:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
+    <row r="16" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="E16" s="80">
+        <v>9</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="80">
+        <v>8</v>
+      </c>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="80">
+        <v>7</v>
+      </c>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
       <c r="P16" s="32"/>
@@ -2037,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -122,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -548,17 +548,6 @@
       <bottom style="medium">
         <color rgb="FFFF0000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -691,16 +680,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1139,6 +1128,55 @@
         <a:xfrm flipV="1">
           <a:off x="4792447" y="3350075"/>
           <a:ext cx="0" cy="408214"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>291204</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>5440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4653643" y="1850571"/>
+          <a:ext cx="440882" cy="5440"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1861,7 +1899,7 @@
   <dimension ref="D3:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,12 +1919,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66">
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="66"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="67"/>
       <c r="I3" s="67"/>
       <c r="J3" s="66">
@@ -1943,7 +1979,7 @@
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
-      <c r="G5" s="73"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
@@ -1964,7 +2000,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
-      <c r="G6" s="73">
+      <c r="G6" s="72">
         <v>15</v>
       </c>
       <c r="H6" s="52"/>
@@ -1975,7 +2011,7 @@
       <c r="M6" s="52"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="79">
+      <c r="P6" s="78">
         <v>4</v>
       </c>
       <c r="Q6" s="32"/>
@@ -1998,7 +2034,7 @@
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
-      <c r="G7" s="74"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="70"/>
       <c r="I7" s="70">
         <v>16</v>
@@ -2006,11 +2042,13 @@
       <c r="J7" s="70"/>
       <c r="K7" s="52"/>
       <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="76">
+      <c r="M7" s="52">
         <v>17</v>
       </c>
-      <c r="O7" s="76"/>
+      <c r="N7" s="75">
+        <v>18</v>
+      </c>
+      <c r="O7" s="75"/>
       <c r="P7" s="68"/>
       <c r="Q7" s="32"/>
       <c r="S7" s="3"/>
@@ -2106,7 +2144,7 @@
       </c>
     </row>
     <row r="10" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="75"/>
+      <c r="D10" s="74"/>
       <c r="E10" s="71">
         <v>14</v>
       </c>
@@ -2118,13 +2156,13 @@
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="71"/>
-      <c r="L10" s="78">
+      <c r="L10" s="77">
         <v>12</v>
       </c>
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="60"/>
-      <c r="P10" s="79">
+      <c r="P10" s="78">
         <v>5</v>
       </c>
       <c r="Q10" s="32"/>
@@ -2155,7 +2193,7 @@
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="77"/>
+      <c r="L11" s="76"/>
       <c r="M11" s="60"/>
       <c r="N11" s="60"/>
       <c r="O11" s="60"/>
@@ -2191,7 +2229,7 @@
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="77">
+      <c r="L12" s="76">
         <v>11</v>
       </c>
       <c r="M12" s="60"/>
@@ -2259,7 +2297,7 @@
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="60"/>
-      <c r="P14" s="79">
+      <c r="P14" s="78">
         <v>6</v>
       </c>
       <c r="Q14" s="32"/>
@@ -2301,19 +2339,19 @@
       </c>
     </row>
     <row r="16" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E16" s="80">
+      <c r="E16" s="79">
         <v>9</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="80">
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="79">
         <v>8</v>
       </c>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="80">
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="79">
         <v>7</v>
       </c>
       <c r="N16" s="32"/>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Total</t>
   </si>
@@ -72,6 +72,24 @@
   <si>
     <t>Length</t>
   </si>
+  <si>
+    <t>No Longer Valid</t>
+  </si>
+  <si>
+    <t># Walls</t>
+  </si>
+  <si>
+    <t>Small Walls</t>
+  </si>
+  <si>
+    <t>Full Walls</t>
+  </si>
+  <si>
+    <t>#2x3</t>
+  </si>
+  <si>
+    <t>Door Frames</t>
+  </si>
 </sst>
 </file>
 
@@ -80,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +116,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -122,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -597,11 +621,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -690,6 +723,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1896,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:AN28"/>
+  <dimension ref="D3:AS28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,10 +1961,12 @@
     <col min="31" max="31" width="9.140625" style="27"/>
     <col min="32" max="38" width="9.140625" style="1"/>
     <col min="39" max="39" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1"/>
+    <col min="40" max="41" width="9.140625" style="1"/>
+    <col min="42" max="42" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -1947,7 +1995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D4" s="59"/>
       <c r="E4" s="60"/>
       <c r="F4" s="60"/>
@@ -1975,7 +2023,7 @@
       <c r="AC4" s="8"/>
       <c r="AD4" s="9"/>
     </row>
-    <row r="5" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D5" s="59"/>
       <c r="E5" s="60"/>
       <c r="F5" s="60"/>
@@ -1995,8 +2043,17 @@
         <v>29</v>
       </c>
       <c r="AD5" s="10"/>
-    </row>
-    <row r="6" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="AQ5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="60"/>
@@ -2029,8 +2086,21 @@
       <c r="AM6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS6" s="1">
+        <f>AR6*AQ6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
       <c r="F7" s="60"/>
@@ -2071,8 +2141,22 @@
         <f>AL7*AK7</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f>AL7+AL10+AL11</f>
+        <v>12</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS7" s="1">
+        <f>AR7*AQ7</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="59"/>
       <c r="E8" s="60"/>
       <c r="F8" s="60"/>
@@ -2110,8 +2194,22 @@
         <f t="shared" ref="AM8:AM11" si="0">AL8*AK8</f>
         <v>152</v>
       </c>
-    </row>
-    <row r="9" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP8" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ8" s="90">
+        <f>AL8+AL9</f>
+        <v>20</v>
+      </c>
+      <c r="AR8" s="90">
+        <v>9</v>
+      </c>
+      <c r="AS8" s="90">
+        <f>AR8*AQ8</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
       <c r="F9" s="60"/>
@@ -2142,8 +2240,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <f>AS8+AS7+AS6</f>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="74"/>
       <c r="E10" s="71">
         <v>14</v>
@@ -2183,8 +2288,15 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="4:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS10" s="91">
+        <f>AS9/8</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
       <c r="F11" s="52"/>
@@ -2220,7 +2332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
@@ -2261,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
       <c r="F13" s="52"/>
@@ -2284,7 +2396,7 @@
       </c>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
@@ -2307,8 +2419,14 @@
       <c r="AE14" s="27">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="4:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJ14" s="92" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK14" s="92"/>
+      <c r="AL14" s="92"/>
+      <c r="AM14" s="92"/>
+    </row>
+    <row r="15" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="69"/>
       <c r="E15" s="52"/>
       <c r="F15" s="52"/>
@@ -2328,17 +2446,18 @@
         <v>23</v>
       </c>
       <c r="AD15" s="10"/>
-      <c r="AK15" s="1" t="s">
+      <c r="AJ15" s="82"/>
+      <c r="AK15" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AL15" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AM15" s="84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="4:40" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="E16" s="79">
         <v>9</v>
       </c>
@@ -2361,21 +2480,21 @@
       <c r="S16" s="3"/>
       <c r="AA16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AJ16" s="1" t="s">
+      <c r="AJ16" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AK16" s="2">
         <v>3</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AL16" s="2">
         <v>14</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AM16" s="86">
         <f>AL16*AK16</f>
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="8:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -2397,21 +2516,21 @@
       </c>
       <c r="AA17" s="22"/>
       <c r="AD17" s="10"/>
-      <c r="AJ17" s="1" t="s">
+      <c r="AJ17" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AK17" s="2">
         <v>5</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AL17" s="2">
         <v>9</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AM17" s="86">
         <f t="shared" ref="AM17:AM18" si="1">AL17*AK17</f>
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="8:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -2428,21 +2547,21 @@
       <c r="AE18" s="27">
         <v>7</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AJ18" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AK18" s="2">
         <v>5</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AL18" s="2">
         <v>16</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AM18" s="86">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -2458,15 +2577,21 @@
         <v>17</v>
       </c>
       <c r="AD19" s="10"/>
-      <c r="AJ19" s="1" t="s">
+      <c r="AJ19" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="86">
         <f>SUM(AM16:AM18)</f>
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="8:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="2">
+        <f>18*6</f>
+        <v>108</v>
+      </c>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -2489,15 +2614,21 @@
         <v>20</v>
       </c>
       <c r="AD20" s="10"/>
-      <c r="AJ20" s="1" t="s">
+      <c r="AJ20" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AK20" s="88"/>
+      <c r="AL20" s="88"/>
+      <c r="AM20" s="89">
         <f>AM19/8</f>
         <v>20.875</v>
       </c>
     </row>
-    <row r="21" spans="8:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="2">
+        <f>12*3</f>
+        <v>36</v>
+      </c>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -2517,7 +2648,11 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="E22" s="2">
+        <f>E21+E20</f>
+        <v>144</v>
+      </c>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -2542,7 +2677,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="E23" s="2">
+        <f>E22/8</f>
+        <v>18</v>
+      </c>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -2558,7 +2697,7 @@
       <c r="Z23" s="2"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -2574,7 +2713,7 @@
       <c r="Z24" s="14"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -2595,7 +2734,7 @@
       <c r="Z25" s="14"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="8:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -2613,7 +2752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="8:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2634,7 +2773,7 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="8:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T28" s="1">
         <v>12</v>
       </c>
@@ -2646,6 +2785,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AJ14:AM14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2657,7 +2799,7 @@
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2698,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -2728,13 +2870,13 @@
       </c>
       <c r="G7" s="6">
         <f>G5*G6</f>
-        <v>49.5</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D9" s="6">
         <f>C7+G7</f>
-        <v>347.2</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -90,6 +90,12 @@
   <si>
     <t>Door Frames</t>
   </si>
+  <si>
+    <t>Small Layout</t>
+  </si>
+  <si>
+    <t>Full Layout</t>
+  </si>
 </sst>
 </file>
 
@@ -634,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -734,6 +740,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1519,7 +1528,7 @@
   <dimension ref="B1:AB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:AB13"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR29" sqref="AR29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1972,9 @@
     <col min="39" max="39" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="41" width="9.140625" style="1"/>
     <col min="42" max="42" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="9.140625" style="1"/>
+    <col min="43" max="44" width="9.140625" style="1"/>
+    <col min="45" max="45" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2022,6 +2033,12 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
       <c r="AD4" s="9"/>
+      <c r="AP4" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
     </row>
     <row r="5" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="D5" s="59"/>
@@ -2425,6 +2442,12 @@
       <c r="AK14" s="92"/>
       <c r="AL14" s="92"/>
       <c r="AM14" s="92"/>
+      <c r="AP14" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ14" s="93"/>
+      <c r="AR14" s="93"/>
+      <c r="AS14" s="93"/>
     </row>
     <row r="15" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="69"/>
@@ -2456,6 +2479,15 @@
       <c r="AM15" s="84" t="s">
         <v>10</v>
       </c>
+      <c r="AQ15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="E16" s="79">
@@ -2493,8 +2525,21 @@
         <f>AL16*AK16</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AS16" s="1">
+        <f>AR16*AQ16</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -2529,8 +2574,21 @@
         <f t="shared" ref="AM17:AM18" si="1">AL17*AK17</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="5:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AP17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS17" s="1">
+        <f>AR17*AQ17</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="5:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -2560,8 +2618,21 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="AP18" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ18" s="90">
+        <v>12</v>
+      </c>
+      <c r="AR18" s="90">
+        <v>9</v>
+      </c>
+      <c r="AS18" s="90">
+        <f>AR18*AQ18</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="5:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -2586,8 +2657,15 @@
         <f>SUM(AM16:AM18)</f>
         <v>167</v>
       </c>
-    </row>
-    <row r="20" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AP19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="1">
+        <f>AS18+AS17+AS16</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2">
         <f>18*6</f>
         <v>108</v>
@@ -2623,8 +2701,15 @@
         <f>AM19/8</f>
         <v>20.875</v>
       </c>
-    </row>
-    <row r="21" spans="5:39" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AP20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS20" s="91">
+        <f>AS19/8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f>12*3</f>
         <v>36</v>
@@ -2648,7 +2733,7 @@
       <c r="AC21" s="8"/>
       <c r="AD21" s="9"/>
     </row>
-    <row r="22" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="E22" s="2">
         <f>E21+E20</f>
         <v>144</v>
@@ -2677,7 +2762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="E23" s="2">
         <f>E22/8</f>
         <v>18</v>
@@ -2697,7 +2782,7 @@
       <c r="Z23" s="2"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -2713,7 +2798,7 @@
       <c r="Z24" s="14"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -2734,7 +2819,7 @@
       <c r="Z25" s="14"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="5:39" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -2752,7 +2837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="5:39" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2773,7 +2858,7 @@
       <c r="AC27" s="12"/>
       <c r="AD27" s="13"/>
     </row>
-    <row r="28" spans="5:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="T28" s="1">
         <v>12</v>
       </c>
@@ -2785,8 +2870,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="AJ14:AM14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AP4:AS4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Total</t>
   </si>
@@ -96,6 +96,12 @@
   <si>
     <t>Full Layout</t>
   </si>
+  <si>
+    <t>48 Feet</t>
+  </si>
+  <si>
+    <t>24 Feet</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +136,27 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -691,11 +718,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -739,6 +761,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -818,13 +849,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -833,7 +864,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2209800" y="5238750"/>
+          <a:off x="2209800" y="5334000"/>
           <a:ext cx="0" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1018,14 +1049,14 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>288471</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>274865</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1034,8 +1065,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9105901" y="6955971"/>
-          <a:ext cx="0" cy="435429"/>
+          <a:off x="8371115" y="7309757"/>
+          <a:ext cx="0" cy="408215"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1527,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,22 +1568,40 @@
     <col min="17" max="28" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
+    <row r="1" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="Q1" s="89" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
     </row>
     <row r="2" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
+      <c r="B2" s="90" t="s">
+        <v>23</v>
+      </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
       <c r="E2" s="33"/>
@@ -1565,81 +1614,87 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="35"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="50"/>
+      <c r="P2" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="47"/>
     </row>
     <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
+      <c r="B3" s="90"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="N3" s="34"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="53"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="47"/>
+      <c r="B4" s="90"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39"/>
       <c r="N4" s="34"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="53"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
+      <c r="B5" s="90"/>
       <c r="E5" s="34"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39"/>
       <c r="N5" s="34"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="56"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47"/>
+      <c r="B6" s="90"/>
       <c r="E6" s="34"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -1650,21 +1705,22 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="38"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="60"/>
-      <c r="AB6" s="61"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="47"/>
+      <c r="B7" s="90"/>
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -1675,21 +1731,22 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="42"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="60"/>
-      <c r="AB7" s="61"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="47"/>
+      <c r="B8" s="90"/>
       <c r="E8" s="34"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -1700,21 +1757,22 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="42"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="61"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
+      <c r="B9" s="90"/>
       <c r="E9" s="34"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -1725,21 +1783,22 @@
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="42"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="61"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
+      <c r="B10" s="90"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -1749,85 +1808,89 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="42"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="52"/>
-      <c r="X10" s="52"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="61"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="47"/>
+      <c r="B11" s="90"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="42"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="61"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="50"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="47"/>
+      <c r="B12" s="90"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
       <c r="N12" s="42"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="61"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="58"/>
     </row>
     <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="47"/>
+      <c r="B13" s="90"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="42"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="62"/>
-      <c r="AA13" s="62"/>
-      <c r="AB13" s="63"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="60"/>
     </row>
     <row r="14" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47"/>
+      <c r="B14" s="90"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="42"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="47"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -1839,7 +1902,7 @@
       <c r="N15" s="42"/>
     </row>
     <row r="16" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
+      <c r="B16" s="90"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -1852,7 +1915,7 @@
       <c r="N16" s="42"/>
     </row>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="47"/>
+      <c r="B17" s="90"/>
       <c r="E17" s="41"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -1865,7 +1928,7 @@
       <c r="N17" s="42"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
+      <c r="B18" s="90"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="G18" s="40"/>
@@ -1878,7 +1941,7 @@
       <c r="N18" s="42"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="47"/>
+      <c r="B19" s="90"/>
       <c r="G19" s="41"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -1889,14 +1952,14 @@
       <c r="N19" s="35"/>
     </row>
     <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
+      <c r="B20" s="90"/>
       <c r="G20" s="41"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
+      <c r="B21" s="90"/>
       <c r="G21" s="41"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
@@ -1904,7 +1967,7 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="47"/>
+      <c r="B22" s="90"/>
       <c r="G22" s="41"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
@@ -1912,15 +1975,16 @@
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="47"/>
-      <c r="G23" s="41"/>
+      <c r="B23" s="90"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="57"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="47"/>
+      <c r="B24" s="90"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -1928,11 +1992,11 @@
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
@@ -1944,8 +2008,15 @@
     </row>
     <row r="26" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="P2:P13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1953,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AR29" sqref="AR29"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,19 +2052,19 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="81"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="66">
+      <c r="G3" s="78"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="63">
         <v>2</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="66">
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="63">
         <v>3</v>
       </c>
-      <c r="O3" s="67"/>
+      <c r="O3" s="64"/>
       <c r="P3" s="32"/>
       <c r="Q3" s="32"/>
       <c r="U3" s="1">
@@ -2007,19 +2078,19 @@
       </c>
     </row>
     <row r="4" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="68"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="65"/>
       <c r="Q4" s="32"/>
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
@@ -2041,19 +2112,19 @@
       <c r="AS4" s="93"/>
     </row>
     <row r="5" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="68"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="65"/>
       <c r="Q5" s="32"/>
       <c r="S5" s="3"/>
       <c r="X5" s="1">
@@ -2071,21 +2142,21 @@
       </c>
     </row>
     <row r="6" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="72">
+      <c r="D6" s="56"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="69">
         <v>15</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="78">
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="75">
         <v>4</v>
       </c>
       <c r="Q6" s="32"/>
@@ -2118,25 +2189,25 @@
       </c>
     </row>
     <row r="7" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70">
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67">
         <v>16</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52">
+      <c r="J7" s="67"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49">
         <v>17</v>
       </c>
-      <c r="N7" s="75">
+      <c r="N7" s="72">
         <v>18</v>
       </c>
-      <c r="O7" s="75"/>
-      <c r="P7" s="68"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="65"/>
       <c r="Q7" s="32"/>
       <c r="S7" s="3"/>
       <c r="U7" s="24">
@@ -2174,19 +2245,19 @@
       </c>
     </row>
     <row r="8" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="68"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="32"/>
       <c r="S8" s="3"/>
       <c r="U8" s="10"/>
@@ -2211,35 +2282,35 @@
         <f t="shared" ref="AM8:AM11" si="0">AL8*AK8</f>
         <v>152</v>
       </c>
-      <c r="AP8" s="90" t="s">
+      <c r="AP8" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AQ8" s="90">
+      <c r="AQ8" s="87">
         <f>AL8+AL9</f>
         <v>20</v>
       </c>
-      <c r="AR8" s="90">
+      <c r="AR8" s="87">
         <v>9</v>
       </c>
-      <c r="AS8" s="90">
+      <c r="AS8" s="87">
         <f>AR8*AQ8</f>
         <v>180</v>
       </c>
     </row>
     <row r="9" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="68"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="65"/>
       <c r="Q9" s="32"/>
       <c r="S9" s="3"/>
       <c r="U9" s="10">
@@ -2266,25 +2337,25 @@
       </c>
     </row>
     <row r="10" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="74"/>
-      <c r="E10" s="71">
+      <c r="D10" s="71"/>
+      <c r="E10" s="68">
         <v>14</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71">
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68">
         <v>13</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="77">
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="74">
         <v>12</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="78">
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="75">
         <v>5</v>
       </c>
       <c r="Q10" s="32"/>
@@ -2308,25 +2379,25 @@
       <c r="AP10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AS10" s="91">
+      <c r="AS10" s="88">
         <f>AS9/8</f>
         <v>34.5</v>
       </c>
     </row>
     <row r="11" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="68"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="65"/>
       <c r="Q11" s="32"/>
       <c r="S11" s="3"/>
       <c r="U11" s="10"/>
@@ -2350,21 +2421,21 @@
       </c>
     </row>
     <row r="12" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="76">
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="73">
         <v>11</v>
       </c>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="68"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="32"/>
       <c r="S12" s="3"/>
       <c r="V12" s="17"/>
@@ -2391,21 +2462,21 @@
       </c>
     </row>
     <row r="13" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="53">
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50">
         <v>10</v>
       </c>
-      <c r="M13" s="60"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="68"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="65"/>
       <c r="Q13" s="32"/>
       <c r="S13" s="3"/>
       <c r="AA13" s="21">
@@ -2414,19 +2485,19 @@
       <c r="AD13" s="10"/>
     </row>
     <row r="14" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="78">
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="75">
         <v>6</v>
       </c>
       <c r="Q14" s="32"/>
@@ -2450,33 +2521,33 @@
       <c r="AS14" s="93"/>
     </row>
     <row r="15" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="69"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="68"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="32"/>
       <c r="S15" s="3"/>
       <c r="AA15" s="10">
         <v>23</v>
       </c>
       <c r="AD15" s="10"/>
-      <c r="AJ15" s="82"/>
-      <c r="AK15" s="83" t="s">
+      <c r="AJ15" s="79"/>
+      <c r="AK15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AL15" s="83" t="s">
+      <c r="AL15" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="AM15" s="84" t="s">
+      <c r="AM15" s="81" t="s">
         <v>10</v>
       </c>
       <c r="AQ15" s="1" t="s">
@@ -2490,19 +2561,19 @@
       </c>
     </row>
     <row r="16" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E16" s="79">
+      <c r="E16" s="76">
         <v>9</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="79">
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="76">
         <v>8</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="79">
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="76">
         <v>7</v>
       </c>
       <c r="N16" s="32"/>
@@ -2512,7 +2583,7 @@
       <c r="S16" s="3"/>
       <c r="AA16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AJ16" s="85" t="s">
+      <c r="AJ16" s="82" t="s">
         <v>11</v>
       </c>
       <c r="AK16" s="2">
@@ -2521,7 +2592,7 @@
       <c r="AL16" s="2">
         <v>14</v>
       </c>
-      <c r="AM16" s="86">
+      <c r="AM16" s="83">
         <f>AL16*AK16</f>
         <v>42</v>
       </c>
@@ -2561,7 +2632,7 @@
       </c>
       <c r="AA17" s="22"/>
       <c r="AD17" s="10"/>
-      <c r="AJ17" s="85" t="s">
+      <c r="AJ17" s="82" t="s">
         <v>12</v>
       </c>
       <c r="AK17" s="2">
@@ -2570,7 +2641,7 @@
       <c r="AL17" s="2">
         <v>9</v>
       </c>
-      <c r="AM17" s="86">
+      <c r="AM17" s="83">
         <f t="shared" ref="AM17:AM18" si="1">AL17*AK17</f>
         <v>45</v>
       </c>
@@ -2605,7 +2676,7 @@
       <c r="AE18" s="27">
         <v>7</v>
       </c>
-      <c r="AJ18" s="85" t="s">
+      <c r="AJ18" s="82" t="s">
         <v>13</v>
       </c>
       <c r="AK18" s="2">
@@ -2614,20 +2685,20 @@
       <c r="AL18" s="2">
         <v>16</v>
       </c>
-      <c r="AM18" s="86">
+      <c r="AM18" s="83">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="AP18" s="90" t="s">
+      <c r="AP18" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="AQ18" s="90">
+      <c r="AQ18" s="87">
         <v>12</v>
       </c>
-      <c r="AR18" s="90">
+      <c r="AR18" s="87">
         <v>9</v>
       </c>
-      <c r="AS18" s="90">
+      <c r="AS18" s="87">
         <f>AR18*AQ18</f>
         <v>108</v>
       </c>
@@ -2648,12 +2719,12 @@
         <v>17</v>
       </c>
       <c r="AD19" s="10"/>
-      <c r="AJ19" s="85" t="s">
+      <c r="AJ19" s="82" t="s">
         <v>0</v>
       </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
-      <c r="AM19" s="86">
+      <c r="AM19" s="83">
         <f>SUM(AM16:AM18)</f>
         <v>167</v>
       </c>
@@ -2692,19 +2763,19 @@
         <v>20</v>
       </c>
       <c r="AD20" s="10"/>
-      <c r="AJ20" s="87" t="s">
+      <c r="AJ20" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="AK20" s="88"/>
-      <c r="AL20" s="88"/>
-      <c r="AM20" s="89">
+      <c r="AK20" s="85"/>
+      <c r="AL20" s="85"/>
+      <c r="AM20" s="86">
         <f>AM19/8</f>
         <v>20.875</v>
       </c>
       <c r="AP20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AS20" s="91">
+      <c r="AS20" s="88">
         <f>AS19/8</f>
         <v>20</v>
       </c>
@@ -2810,9 +2881,6 @@
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
       <c r="S25" s="3"/>
-      <c r="W25" s="1">
-        <v>13</v>
-      </c>
       <c r="Y25" s="1">
         <v>14</v>
       </c>
@@ -2852,6 +2920,9 @@
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
+      <c r="W27" s="1">
+        <v>13</v>
+      </c>
       <c r="Z27" s="15"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -971,6 +971,55 @@
         <a:ln w="28575">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>130342</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7589921" y="1173079"/>
+          <a:ext cx="370974" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1558,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:AS28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
@@ -2957,7 +3006,7 @@
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Total</t>
   </si>
@@ -61,19 +61,7 @@
     <t>Total Length</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Corner</t>
-  </si>
-  <si>
-    <t>Seam</t>
-  </si>
-  <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>No Longer Valid</t>
   </si>
   <si>
     <t># Walls</t>
@@ -91,9 +79,6 @@
     <t>Door Frames</t>
   </si>
   <si>
-    <t>Small Layout</t>
-  </si>
-  <si>
     <t>Full Layout</t>
   </si>
   <si>
@@ -101,6 +86,9 @@
   </si>
   <si>
     <t>24 Feet</t>
+  </si>
+  <si>
+    <t>Small Layout 2x3 Calc</t>
   </si>
 </sst>
 </file>
@@ -110,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +116,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -667,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,27 +733,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1047,13 +1018,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1096,13 +1067,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>2722</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>274865</xdr:rowOff>
@@ -1145,13 +1116,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>166007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>2721</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>2721</xdr:rowOff>
@@ -1194,13 +1165,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>6802</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>246289</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>6802</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>131989</xdr:rowOff>
@@ -1243,13 +1214,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>302090</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>2718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>302090</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>125182</xdr:rowOff>
@@ -1292,13 +1263,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>163286</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>291204</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>5440</xdr:rowOff>
@@ -1607,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
@@ -1618,38 +1589,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="Q1" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
+      <c r="C1" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="Q1" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
     </row>
     <row r="2" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
-        <v>23</v>
+      <c r="B2" s="82" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -1663,8 +1634,8 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="N2" s="35"/>
-      <c r="P2" s="91" t="s">
-        <v>24</v>
+      <c r="P2" s="83" t="s">
+        <v>19</v>
       </c>
       <c r="Q2" s="54"/>
       <c r="R2" s="55"/>
@@ -1680,12 +1651,12 @@
       <c r="AB2" s="47"/>
     </row>
     <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90"/>
+      <c r="B3" s="82"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
       <c r="H3" s="40"/>
       <c r="N3" s="34"/>
-      <c r="P3" s="91"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="57"/>
       <c r="S3" s="58"/>
@@ -1700,13 +1671,13 @@
       <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="90"/>
+      <c r="B4" s="82"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
       <c r="I4" s="39"/>
       <c r="N4" s="34"/>
-      <c r="P4" s="91"/>
+      <c r="P4" s="83"/>
       <c r="Q4" s="56"/>
       <c r="R4" s="57"/>
       <c r="S4" s="58"/>
@@ -1721,14 +1692,14 @@
       <c r="AB4" s="50"/>
     </row>
     <row r="5" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="90"/>
+      <c r="B5" s="82"/>
       <c r="E5" s="34"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="39"/>
       <c r="N5" s="34"/>
-      <c r="P5" s="91"/>
+      <c r="P5" s="83"/>
       <c r="Q5" s="56"/>
       <c r="R5" s="57"/>
       <c r="S5" s="58"/>
@@ -1743,7 +1714,7 @@
       <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="90"/>
+      <c r="B6" s="82"/>
       <c r="E6" s="34"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
@@ -1754,7 +1725,7 @@
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
       <c r="N6" s="38"/>
-      <c r="P6" s="91"/>
+      <c r="P6" s="83"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="57"/>
       <c r="S6" s="57"/>
@@ -1769,7 +1740,7 @@
       <c r="AB6" s="58"/>
     </row>
     <row r="7" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="90"/>
+      <c r="B7" s="82"/>
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
@@ -1780,7 +1751,7 @@
       <c r="L7" s="40"/>
       <c r="M7" s="40"/>
       <c r="N7" s="42"/>
-      <c r="P7" s="91"/>
+      <c r="P7" s="83"/>
       <c r="Q7" s="56"/>
       <c r="R7" s="57"/>
       <c r="S7" s="57"/>
@@ -1795,7 +1766,7 @@
       <c r="AB7" s="58"/>
     </row>
     <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="90"/>
+      <c r="B8" s="82"/>
       <c r="E8" s="34"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
@@ -1806,7 +1777,7 @@
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
       <c r="N8" s="42"/>
-      <c r="P8" s="91"/>
+      <c r="P8" s="83"/>
       <c r="Q8" s="61"/>
       <c r="R8" s="59"/>
       <c r="S8" s="59"/>
@@ -1821,7 +1792,7 @@
       <c r="AB8" s="58"/>
     </row>
     <row r="9" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
+      <c r="B9" s="82"/>
       <c r="E9" s="34"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
@@ -1832,7 +1803,7 @@
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
       <c r="N9" s="42"/>
-      <c r="P9" s="91"/>
+      <c r="P9" s="83"/>
       <c r="Q9" s="48"/>
       <c r="R9" s="49"/>
       <c r="S9" s="49"/>
@@ -1847,7 +1818,7 @@
       <c r="AB9" s="58"/>
     </row>
     <row r="10" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
+      <c r="B10" s="82"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
@@ -1857,7 +1828,7 @@
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
       <c r="N10" s="42"/>
-      <c r="P10" s="91"/>
+      <c r="P10" s="83"/>
       <c r="Q10" s="48"/>
       <c r="R10" s="49"/>
       <c r="S10" s="49"/>
@@ -1872,12 +1843,12 @@
       <c r="AB10" s="58"/>
     </row>
     <row r="11" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
+      <c r="B11" s="82"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
       <c r="M11" s="40"/>
       <c r="N11" s="42"/>
-      <c r="P11" s="91"/>
+      <c r="P11" s="83"/>
       <c r="Q11" s="48"/>
       <c r="R11" s="49"/>
       <c r="S11" s="49"/>
@@ -1892,12 +1863,12 @@
       <c r="AB11" s="58"/>
     </row>
     <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="90"/>
+      <c r="B12" s="82"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
       <c r="M12" s="40"/>
       <c r="N12" s="42"/>
-      <c r="P12" s="91"/>
+      <c r="P12" s="83"/>
       <c r="Q12" s="48"/>
       <c r="R12" s="49"/>
       <c r="S12" s="49"/>
@@ -1912,12 +1883,12 @@
       <c r="AB12" s="58"/>
     </row>
     <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
+      <c r="B13" s="82"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
       <c r="M13" s="40"/>
       <c r="N13" s="42"/>
-      <c r="P13" s="91"/>
+      <c r="P13" s="83"/>
       <c r="Q13" s="51"/>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
@@ -1932,14 +1903,14 @@
       <c r="AB13" s="60"/>
     </row>
     <row r="14" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="90"/>
+      <c r="B14" s="82"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="42"/>
     </row>
     <row r="15" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -1951,7 +1922,7 @@
       <c r="N15" s="42"/>
     </row>
     <row r="16" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
+      <c r="B16" s="82"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
@@ -1964,7 +1935,7 @@
       <c r="N16" s="42"/>
     </row>
     <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
+      <c r="B17" s="82"/>
       <c r="E17" s="41"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
@@ -1977,7 +1948,7 @@
       <c r="N17" s="42"/>
     </row>
     <row r="18" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
+      <c r="B18" s="82"/>
       <c r="E18" s="43"/>
       <c r="F18" s="44"/>
       <c r="G18" s="40"/>
@@ -1990,7 +1961,7 @@
       <c r="N18" s="42"/>
     </row>
     <row r="19" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
+      <c r="B19" s="82"/>
       <c r="G19" s="41"/>
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
@@ -2001,14 +1972,14 @@
       <c r="N19" s="35"/>
     </row>
     <row r="20" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
+      <c r="B20" s="82"/>
       <c r="G20" s="41"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
+      <c r="B21" s="82"/>
       <c r="G21" s="41"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
@@ -2016,7 +1987,7 @@
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
+      <c r="B22" s="82"/>
       <c r="G22" s="41"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
@@ -2024,7 +1995,7 @@
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="90"/>
+      <c r="B23" s="82"/>
       <c r="F23" s="49"/>
       <c r="G23" s="57"/>
       <c r="H23" s="40"/>
@@ -2033,7 +2004,7 @@
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="90"/>
+      <c r="B24" s="82"/>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -2041,7 +2012,7 @@
       <c r="N24" s="34"/>
     </row>
     <row r="25" spans="2:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
+      <c r="B25" s="82"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
@@ -2071,77 +2042,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:AS28"/>
+  <dimension ref="B3:AN28"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="4.7109375" style="2" customWidth="1"/>
-    <col min="7" max="15" width="4.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="30" width="4.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="27"/>
-    <col min="32" max="38" width="9.140625" style="1"/>
-    <col min="39" max="39" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="9.140625" style="1"/>
-    <col min="42" max="42" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="9.140625" style="1"/>
-    <col min="45" max="45" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="4.7109375" style="2" customWidth="1"/>
+    <col min="5" max="13" width="4.7109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="28" width="4.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="27"/>
+    <col min="30" max="33" width="9.140625" style="1"/>
+    <col min="34" max="34" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.140625" style="1"/>
+    <col min="37" max="37" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="9.140625" style="1"/>
+    <col min="40" max="40" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F3" s="2">
+    <row r="3" spans="2:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="64"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="63">
+        <v>2</v>
+      </c>
       <c r="I3" s="64"/>
-      <c r="J3" s="63">
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="63">
+        <v>3</v>
+      </c>
+      <c r="M3" s="64"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="63">
+      <c r="AA3" s="1">
         <v>3</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="69"/>
+    </row>
+    <row r="4" spans="2:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
       <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="32"/>
-      <c r="S4" s="7"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="32"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
@@ -2150,151 +2121,151 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="9"/>
-      <c r="AP4" s="93" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="93"/>
-      <c r="AS4" s="93"/>
-    </row>
-    <row r="5" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="69"/>
+      <c r="AB4" s="9"/>
+      <c r="AK4" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL4" s="84"/>
+      <c r="AM4" s="84"/>
+      <c r="AN4" s="84"/>
+    </row>
+    <row r="5" spans="2:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
       <c r="H5" s="49"/>
       <c r="I5" s="49"/>
       <c r="J5" s="49"/>
       <c r="K5" s="49"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="32"/>
-      <c r="S5" s="3"/>
-      <c r="X5" s="1">
+      <c r="N5" s="65"/>
+      <c r="O5" s="32"/>
+      <c r="Q5" s="3"/>
+      <c r="V5" s="1">
         <v>29</v>
       </c>
-      <c r="AD5" s="10"/>
-      <c r="AQ5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS5" s="1" t="s">
+      <c r="AB5" s="10"/>
+      <c r="AL5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="69">
+    <row r="6" spans="2:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="69">
         <v>15</v>
       </c>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="49"/>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="75">
+      <c r="N6" s="75">
         <v>4</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="S6" s="3"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="27">
+      <c r="O6" s="32"/>
+      <c r="Q6" s="3"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="27">
         <v>4</v>
       </c>
+      <c r="AF6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AK6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1">
         <v>8</v>
       </c>
-      <c r="AL6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>8</v>
-      </c>
-      <c r="AS6" s="1">
-        <f>AR6*AQ6</f>
+      <c r="AN6" s="1">
+        <f>AM6*AL6</f>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="70"/>
+    <row r="7" spans="2:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67">
+        <v>16</v>
+      </c>
       <c r="H7" s="67"/>
-      <c r="I7" s="67">
-        <v>16</v>
-      </c>
-      <c r="J7" s="67"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49">
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49">
         <v>17</v>
       </c>
-      <c r="N7" s="72">
+      <c r="L7" s="72">
         <v>18</v>
       </c>
-      <c r="O7" s="72"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="32"/>
-      <c r="S7" s="3"/>
-      <c r="U7" s="24">
+      <c r="M7" s="72"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="32"/>
+      <c r="Q7" s="3"/>
+      <c r="S7" s="24">
         <v>28</v>
       </c>
-      <c r="X7" s="1">
+      <c r="V7" s="1">
         <v>30</v>
       </c>
-      <c r="Y7" s="25"/>
-      <c r="AD7" s="10"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="1">
+      <c r="W7" s="25"/>
+      <c r="AB7" s="10"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="1">
         <v>4</v>
       </c>
+      <c r="AG7" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH7" s="1">
+        <f>AG7*AF7</f>
+        <v>24</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="AL7" s="1">
+        <f>AG7+AG10+AG11</f>
+        <v>12</v>
+      </c>
+      <c r="AM7" s="1">
         <v>6</v>
       </c>
-      <c r="AM7" s="1">
-        <f>AL7*AK7</f>
-        <v>24</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ7" s="1">
-        <f>AL7+AL10+AL11</f>
-        <v>12</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS7" s="1">
-        <f>AR7*AQ7</f>
+      <c r="AN7" s="1">
+        <f>AM7*AL7</f>
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D8" s="56"/>
+    <row r="8" spans="2:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
       <c r="E8" s="57"/>
       <c r="F8" s="57"/>
       <c r="G8" s="57"/>
@@ -2304,50 +2275,50 @@
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="32"/>
-      <c r="S8" s="3"/>
-      <c r="U8" s="10"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="20">
+      <c r="N8" s="65"/>
+      <c r="O8" s="32"/>
+      <c r="Q8" s="3"/>
+      <c r="S8" s="10"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="20">
         <v>31</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12">
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12">
         <v>32</v>
       </c>
-      <c r="AD8" s="13"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="1">
+      <c r="AB8" s="13"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="1">
         <v>8</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AG8" s="1">
         <v>19</v>
       </c>
-      <c r="AM8" s="1">
-        <f t="shared" ref="AM8:AM11" si="0">AL8*AK8</f>
+      <c r="AH8" s="1">
+        <f t="shared" ref="AH8:AH11" si="0">AG8*AF8</f>
         <v>152</v>
       </c>
-      <c r="AP8" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ8" s="87">
-        <f>AL8+AL9</f>
+      <c r="AK8" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL8" s="79">
+        <f>AG8+AG9</f>
         <v>20</v>
       </c>
-      <c r="AR8" s="87">
+      <c r="AM8" s="79">
         <v>9</v>
       </c>
-      <c r="AS8" s="87">
-        <f>AR8*AQ8</f>
+      <c r="AN8" s="79">
+        <f>AM8*AL8</f>
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="56"/>
+    <row r="9" spans="2:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
@@ -2357,309 +2328,295 @@
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="32"/>
-      <c r="S9" s="3"/>
-      <c r="U9" s="10">
+      <c r="N9" s="65"/>
+      <c r="O9" s="32"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="10">
         <v>27</v>
       </c>
-      <c r="AD9" s="10"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="1">
+      <c r="AB9" s="10"/>
+      <c r="AE9" s="29"/>
+      <c r="AF9" s="1">
         <v>6</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AG9" s="1">
         <v>1</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AH9" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AS9" s="1">
-        <f>AS8+AS7+AS6</f>
+      <c r="AN9" s="1">
+        <f>AN8+AN7+AN6</f>
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="71"/>
-      <c r="E10" s="68">
+    <row r="10" spans="2:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="71"/>
+      <c r="C10" s="68">
         <v>14</v>
       </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="G10" s="68">
+        <v>13</v>
+      </c>
       <c r="H10" s="68"/>
-      <c r="I10" s="68">
-        <v>13</v>
-      </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="74">
+      <c r="I10" s="68"/>
+      <c r="J10" s="74">
         <v>12</v>
       </c>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
       <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="75">
+      <c r="N10" s="75">
         <v>5</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="S10" s="3"/>
-      <c r="U10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="27">
+      <c r="O10" s="32"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="27">
         <v>5</v>
       </c>
-      <c r="AJ10" s="30"/>
-      <c r="AK10" s="1">
+      <c r="AE10" s="30"/>
+      <c r="AF10" s="1">
         <v>2</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AG10" s="1">
         <v>3</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AH10" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AP10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS10" s="88">
-        <f>AS9/8</f>
+      <c r="AK10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN10" s="80">
+        <f>AN9/8</f>
         <v>34.5</v>
       </c>
     </row>
-    <row r="11" spans="4:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="48"/>
+    <row r="11" spans="2:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
       <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="32"/>
-      <c r="S11" s="3"/>
-      <c r="U11" s="10"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="32"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="10"/>
+      <c r="U11" s="1">
+        <v>26</v>
+      </c>
       <c r="W11" s="1">
-        <v>26</v>
-      </c>
-      <c r="Y11" s="1">
         <v>25</v>
       </c>
-      <c r="AD11" s="10"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="1">
+      <c r="AB11" s="10"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="1">
         <v>3</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AG11" s="1">
         <v>3</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AH11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="4:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="48"/>
+    <row r="12" spans="2:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="73">
+      <c r="J12" s="73">
         <v>11</v>
       </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
       <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="32"/>
-      <c r="S12" s="3"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="32"/>
+      <c r="Q12" s="3"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
       <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="23"/>
-      <c r="AD12" s="10"/>
-      <c r="AK12" s="1" t="s">
+      <c r="Y12" s="23"/>
+      <c r="AB12" s="10"/>
+      <c r="AF12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AL12" s="1">
-        <f>SUM(AL7:AL11)</f>
+      <c r="AG12" s="1">
+        <f>SUM(AG7:AG11)</f>
         <v>32</v>
       </c>
-      <c r="AM12" s="1">
-        <f>SUM(AM7:AM11)</f>
+      <c r="AH12" s="1">
+        <f>SUM(AH7:AH11)</f>
         <v>197</v>
       </c>
-      <c r="AN12" s="1">
-        <f>SUM(AN7:AN11)</f>
+      <c r="AI12" s="1">
+        <f>SUM(AI7:AI11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="D13" s="48"/>
+    <row r="13" spans="2:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="50">
+      <c r="J13" s="50">
         <v>10</v>
       </c>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
       <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="32"/>
-      <c r="S13" s="3"/>
-      <c r="AA13" s="21">
+      <c r="N13" s="65"/>
+      <c r="O13" s="32"/>
+      <c r="Q13" s="3"/>
+      <c r="Y13" s="21">
         <v>24</v>
       </c>
-      <c r="AD13" s="10"/>
-    </row>
-    <row r="14" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="48"/>
+      <c r="AB13" s="10"/>
+    </row>
+    <row r="14" spans="2:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
       <c r="H14" s="49"/>
       <c r="I14" s="49"/>
       <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="75">
+      <c r="N14" s="75">
         <v>6</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="S14" s="3"/>
-      <c r="AA14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="27">
+      <c r="O14" s="32"/>
+      <c r="Q14" s="3"/>
+      <c r="Y14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="27">
         <v>6</v>
       </c>
-      <c r="AJ14" s="92" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK14" s="92"/>
-      <c r="AL14" s="92"/>
-      <c r="AM14" s="92"/>
-      <c r="AP14" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="AQ14" s="93"/>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-    </row>
-    <row r="15" spans="4:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D15" s="66"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AK14" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+    </row>
+    <row r="15" spans="2:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="66"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
       <c r="H15" s="49"/>
       <c r="I15" s="49"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="32"/>
-      <c r="S15" s="3"/>
-      <c r="AA15" s="10">
+      <c r="K15" s="57"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="32"/>
+      <c r="Q15" s="3"/>
+      <c r="Y15" s="10">
         <v>23</v>
       </c>
-      <c r="AD15" s="10"/>
-      <c r="AJ15" s="79"/>
-      <c r="AK15" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL15" s="80" t="s">
+      <c r="AB15" s="10"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AL15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C16" s="76">
         <v>9</v>
       </c>
-      <c r="AM15" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS15" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="4:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E16" s="76">
-        <v>9</v>
-      </c>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="76">
+        <v>8</v>
+      </c>
       <c r="H16" s="77"/>
-      <c r="I16" s="76">
-        <v>8</v>
-      </c>
+      <c r="I16" s="77"/>
       <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="76">
+      <c r="K16" s="76">
         <v>7</v>
       </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="S16" s="3"/>
-      <c r="AA16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AJ16" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK16" s="2">
+      <c r="Q16" s="3"/>
+      <c r="Y16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AK16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL16" s="1">
         <v>3</v>
       </c>
-      <c r="AL16" s="2">
-        <v>14</v>
-      </c>
-      <c r="AM16" s="83">
-        <f>AL16*AK16</f>
-        <v>42</v>
-      </c>
-      <c r="AP16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR16" s="1">
+      <c r="AM16" s="1">
         <v>8</v>
       </c>
-      <c r="AS16" s="1">
-        <f>AR16*AQ16</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AN16" s="1">
+        <f>AM16*AL16</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -2668,47 +2625,39 @@
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
       <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="S17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12">
+        <v>21</v>
+      </c>
       <c r="T17" s="12"/>
-      <c r="U17" s="12">
-        <v>21</v>
-      </c>
-      <c r="V17" s="12"/>
-      <c r="Z17" s="20">
+      <c r="X17" s="20">
         <v>22</v>
       </c>
-      <c r="AA17" s="22"/>
-      <c r="AD17" s="10"/>
-      <c r="AJ17" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>9</v>
-      </c>
-      <c r="AM17" s="83">
-        <f t="shared" ref="AM17:AM18" si="1">AL17*AK17</f>
-        <v>45</v>
-      </c>
-      <c r="AP17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ17" s="1">
+      <c r="Y17" s="22"/>
+      <c r="AB17" s="10"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AK17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL17" s="1">
         <v>6</v>
       </c>
-      <c r="AR17" s="1">
-        <v>6</v>
-      </c>
-      <c r="AS17" s="1">
-        <f>AR17*AQ17</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="5:45" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AM17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN17" s="1">
+        <f>AM17*AL17</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -2717,42 +2666,34 @@
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="19"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="27">
+      <c r="Q18" s="3"/>
+      <c r="R18" s="19"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="27">
         <v>7</v>
       </c>
-      <c r="AJ18" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>5</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>16</v>
-      </c>
-      <c r="AM18" s="83">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="AP18" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="AQ18" s="87">
-        <v>12</v>
-      </c>
-      <c r="AR18" s="87">
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AK18" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="AL18" s="79">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="79">
         <v>9</v>
       </c>
-      <c r="AS18" s="87">
-        <f>AR18*AQ18</f>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="5:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AN18" s="79">
+        <f>AM18*AL18</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -2761,35 +2702,31 @@
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
       <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="19">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="19">
         <v>17</v>
       </c>
-      <c r="AD19" s="10"/>
-      <c r="AJ19" s="82" t="s">
+      <c r="AB19" s="10"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AK19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="AK19" s="2"/>
-      <c r="AL19" s="2"/>
-      <c r="AM19" s="83">
-        <f>SUM(AM16:AM18)</f>
-        <v>167</v>
-      </c>
-      <c r="AP19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="1">
-        <f>AS18+AS17+AS16</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="2">
+      <c r="AN19" s="1">
+        <f>AN18+AN17+AN16</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="3:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="2">
         <f>18*6</f>
         <v>108</v>
       </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -2798,42 +2735,38 @@
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="19"/>
-      <c r="V20" s="1">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="19"/>
+      <c r="T20" s="1">
         <v>18</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="X20" s="1">
         <v>19</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AA20" s="1">
         <v>20</v>
       </c>
-      <c r="AD20" s="10"/>
-      <c r="AJ20" s="84" t="s">
-        <v>6</v>
-      </c>
-      <c r="AK20" s="85"/>
-      <c r="AL20" s="85"/>
-      <c r="AM20" s="86">
-        <f>AM19/8</f>
-        <v>20.875</v>
-      </c>
-      <c r="AP20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS20" s="88">
-        <f>AS19/8</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="5:45" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="2">
+      <c r="AB20" s="10"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AK20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN20" s="80">
+        <f>AN19/8</f>
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="21" spans="3:40" ht="23.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
         <f>12*3</f>
         <v>36</v>
       </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -2842,22 +2775,27 @@
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="S21" s="3"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="18"/>
-      <c r="Z21" s="16"/>
+      <c r="Q21" s="3"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
       <c r="AA21" s="8"/>
-      <c r="AB21" s="8"/>
-      <c r="AC21" s="8"/>
-      <c r="AD21" s="9"/>
-    </row>
-    <row r="22" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E22" s="2">
-        <f>E21+E20</f>
+      <c r="AB21" s="9"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+    </row>
+    <row r="22" spans="3:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <f>C21+C20</f>
         <v>144</v>
       </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -2866,27 +2804,27 @@
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="S22" s="3"/>
-      <c r="V22" s="10"/>
+      <c r="Q22" s="3"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="1">
+        <v>15</v>
+      </c>
       <c r="W22" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="1">
         <v>16</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="27">
+      <c r="X22" s="2"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="E23" s="2">
-        <f>E22/8</f>
+    <row r="23" spans="3:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <f>C22/8</f>
         <v>18</v>
       </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -2895,14 +2833,14 @@
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
       <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="S23" s="3"/>
-      <c r="V23" s="10"/>
-      <c r="Z23" s="2"/>
-      <c r="AD23" s="10"/>
-    </row>
-    <row r="24" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="Q23" s="3"/>
+      <c r="T23" s="10"/>
+      <c r="X23" s="2"/>
+      <c r="AB23" s="10"/>
+    </row>
+    <row r="24" spans="3:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -2911,14 +2849,14 @@
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
       <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="S24" s="3"/>
-      <c r="V24" s="10"/>
-      <c r="Z24" s="14"/>
-      <c r="AD24" s="10"/>
-    </row>
-    <row r="25" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="Q24" s="3"/>
+      <c r="T24" s="10"/>
+      <c r="X24" s="14"/>
+      <c r="AB24" s="10"/>
+    </row>
+    <row r="25" spans="3:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
       <c r="J25" s="32"/>
@@ -2927,16 +2865,16 @@
       <c r="M25" s="32"/>
       <c r="N25" s="32"/>
       <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="S25" s="3"/>
-      <c r="Y25" s="1">
+      <c r="Q25" s="3"/>
+      <c r="W25" s="1">
         <v>14</v>
       </c>
-      <c r="Z25" s="14"/>
-      <c r="AD25" s="10"/>
-    </row>
-    <row r="26" spans="5:45" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="X25" s="14"/>
+      <c r="AB25" s="10"/>
+    </row>
+    <row r="26" spans="3:40" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -2945,16 +2883,16 @@
       <c r="M26" s="32"/>
       <c r="N26" s="32"/>
       <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="S26" s="3"/>
-      <c r="Z26" s="14"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="27">
+      <c r="Q26" s="3"/>
+      <c r="X26" s="14"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="27">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="5:45" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:40" ht="23.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
       <c r="J27" s="32"/>
@@ -2963,37 +2901,34 @@
       <c r="M27" s="32"/>
       <c r="N27" s="32"/>
       <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="S27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="1">
+      <c r="U27" s="1">
         <v>13</v>
       </c>
-      <c r="Z27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
-      <c r="AB27" s="12"/>
-      <c r="AC27" s="12"/>
-      <c r="AD27" s="13"/>
-    </row>
-    <row r="28" spans="5:45" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T28" s="1">
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="3:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="1">
         <v>12</v>
       </c>
+      <c r="X28" s="1">
+        <v>11</v>
+      </c>
       <c r="Z28" s="1">
-        <v>11</v>
-      </c>
-      <c r="AB28" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="AJ14:AM14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AP4:AS4"/>
+  <mergeCells count="2">
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="AK4:AN4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Technical/Testing/Final Flight Demo.xlsx
+++ b/Technical/Testing/Final Flight Demo.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23190" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="3" r:id="rId1"/>
     <sheet name="Wall Specs" sheetId="1" r:id="rId2"/>
     <sheet name="Costs" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Total</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Small Layout 2x3 Calc</t>
+  </si>
+  <si>
+    <t>Linear Feet</t>
   </si>
 </sst>
 </file>
@@ -161,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -645,11 +648,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,6 +812,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1576,19 +1648,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB26"/>
+  <dimension ref="B1:AT26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="14" width="3.7109375" customWidth="1"/>
     <col min="17" max="28" width="3.7109375" customWidth="1"/>
+    <col min="31" max="42" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="81" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1691,7 @@
       <c r="AA1" s="81"/>
       <c r="AB1" s="81"/>
     </row>
-    <row r="2" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:46" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
@@ -1649,8 +1722,20 @@
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="47"/>
-    </row>
-    <row r="3" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="46"/>
+      <c r="AG2" s="46"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="46"/>
+      <c r="AJ2" s="46"/>
+      <c r="AK2" s="46"/>
+      <c r="AL2" s="46"/>
+      <c r="AM2" s="46"/>
+      <c r="AN2" s="46"/>
+      <c r="AO2" s="46"/>
+      <c r="AP2" s="47"/>
+    </row>
+    <row r="3" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="82"/>
       <c r="F3" s="40"/>
       <c r="G3" s="40"/>
@@ -1669,8 +1754,31 @@
       <c r="Z3" s="49"/>
       <c r="AA3" s="49"/>
       <c r="AB3" s="50"/>
-    </row>
-    <row r="4" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="50"/>
+      <c r="AR3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS3">
+        <f>AS4+AS5</f>
+        <v>116</v>
+      </c>
+      <c r="AT3">
+        <f>AS3/4</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="82"/>
       <c r="F4" s="40"/>
       <c r="G4" s="40"/>
@@ -1690,8 +1798,24 @@
       <c r="Z4" s="49"/>
       <c r="AA4" s="49"/>
       <c r="AB4" s="50"/>
-    </row>
-    <row r="5" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="50"/>
+      <c r="AS4">
+        <f>24*3</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="82"/>
       <c r="E5" s="34"/>
       <c r="F5" s="40"/>
@@ -1712,8 +1836,23 @@
       <c r="Z5" s="49"/>
       <c r="AA5" s="52"/>
       <c r="AB5" s="53"/>
-    </row>
-    <row r="6" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="89"/>
+      <c r="AN5" s="89"/>
+      <c r="AO5" s="89"/>
+      <c r="AP5" s="90"/>
+      <c r="AS5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="82"/>
       <c r="E6" s="34"/>
       <c r="F6" s="40"/>
@@ -1738,8 +1877,20 @@
       <c r="Z6" s="57"/>
       <c r="AA6" s="57"/>
       <c r="AB6" s="58"/>
-    </row>
-    <row r="7" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="48"/>
+      <c r="AF6" s="49"/>
+      <c r="AG6" s="49"/>
+      <c r="AH6" s="49"/>
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="49"/>
+      <c r="AK6" s="49"/>
+      <c r="AL6" s="49"/>
+      <c r="AM6" s="49"/>
+      <c r="AN6" s="49"/>
+      <c r="AO6" s="49"/>
+      <c r="AP6" s="50"/>
+    </row>
+    <row r="7" spans="2:46" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="82"/>
       <c r="E7" s="34"/>
       <c r="F7" s="40"/>
@@ -1764,8 +1915,20 @@
       <c r="Z7" s="57"/>
       <c r="AA7" s="57"/>
       <c r="AB7" s="58"/>
-    </row>
-    <row r="8" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE7" s="48"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="50"/>
+    </row>
+    <row r="8" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="82"/>
       <c r="E8" s="34"/>
       <c r="F8" s="40"/>
@@ -1790,8 +1953,20 @@
       <c r="Z8" s="57"/>
       <c r="AA8" s="57"/>
       <c r="AB8" s="58"/>
-    </row>
-    <row r="9" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="89"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="89"/>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89"/>
+      <c r="AK8" s="89"/>
+      <c r="AL8" s="89"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="50"/>
+    </row>
+    <row r="9" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="82"/>
       <c r="E9" s="34"/>
       <c r="F9" s="40"/>
@@ -1816,8 +1991,20 @@
       <c r="Z9" s="57"/>
       <c r="AA9" s="57"/>
       <c r="AB9" s="58"/>
-    </row>
-    <row r="10" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="50"/>
+    </row>
+    <row r="10" spans="2:46" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="82"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
@@ -1841,8 +2028,20 @@
       <c r="Z10" s="57"/>
       <c r="AA10" s="57"/>
       <c r="AB10" s="58"/>
-    </row>
-    <row r="11" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="48"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="50"/>
+    </row>
+    <row r="11" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="82"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
@@ -1861,8 +2060,20 @@
       <c r="Z11" s="57"/>
       <c r="AA11" s="57"/>
       <c r="AB11" s="58"/>
-    </row>
-    <row r="12" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="48"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="50"/>
+    </row>
+    <row r="12" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="82"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
@@ -1881,8 +2092,20 @@
       <c r="Z12" s="57"/>
       <c r="AA12" s="57"/>
       <c r="AB12" s="58"/>
-    </row>
-    <row r="13" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="50"/>
+    </row>
+    <row r="13" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="82"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
@@ -1901,15 +2124,27 @@
       <c r="Z13" s="59"/>
       <c r="AA13" s="59"/>
       <c r="AB13" s="60"/>
-    </row>
-    <row r="14" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="51"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="52"/>
+      <c r="AH13" s="52"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
+      <c r="AN13" s="52"/>
+      <c r="AO13" s="52"/>
+      <c r="AP13" s="53"/>
+    </row>
+    <row r="14" spans="2:46" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="82"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
       <c r="M14" s="40"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="2:28" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:46" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="82"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
@@ -1921,7 +2156,7 @@
       <c r="M15" s="40"/>
       <c r="N15" s="42"/>
     </row>
-    <row r="16" spans="2:28" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:46" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="82"/>
       <c r="E16" s="41"/>
       <c r="F16" s="40"/>
@@ -2044,7 +2279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
@@ -2941,7 +3176,7 @@
   <dimension ref="B3:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
